--- a/data/Sluchaynaya_amplituda_i_faza_na_2_liste.xlsx
+++ b/data/Sluchaynaya_amplituda_i_faza_na_2_liste.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Kannab\Documents\optimized_detector\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A370876-FBE7-40B1-8876-9893E996077A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="21015" windowHeight="8205" activeTab="1"/>
+    <workbookView xWindow="-15750" yWindow="8745" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="14">
   <si>
     <t>Порог</t>
   </si>
@@ -47,12 +53,24 @@
   <si>
     <t>СК=1.5</t>
   </si>
+  <si>
+    <t>СКО=0.01</t>
+  </si>
+  <si>
+    <t>Отн сигнал\шум</t>
+  </si>
+  <si>
+    <t>P пл</t>
+  </si>
+  <si>
+    <t>inf</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,14 +100,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -136,7 +165,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -168,9 +197,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -202,6 +249,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -377,16 +442,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>0</v>
       </c>
@@ -400,7 +465,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -417,7 +482,7 @@
         <v>0.33800000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -434,7 +499,7 @@
         <v>0.19700000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5">
         <v>3</v>
       </c>
@@ -448,7 +513,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6">
         <v>5</v>
       </c>
@@ -462,7 +527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7">
         <v>7</v>
       </c>
@@ -476,7 +541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8">
         <v>10</v>
       </c>
@@ -490,7 +555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9">
         <v>15</v>
       </c>
@@ -504,7 +569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10">
         <v>20</v>
       </c>
@@ -518,7 +583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11">
         <v>23</v>
       </c>
@@ -532,7 +597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12">
         <v>25</v>
       </c>
@@ -546,7 +611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13">
         <v>27</v>
       </c>
@@ -560,7 +625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14">
         <v>30</v>
       </c>
@@ -574,7 +639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -591,7 +656,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18">
         <v>1</v>
       </c>
@@ -605,7 +670,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19">
         <v>3</v>
       </c>
@@ -619,7 +684,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20">
         <v>5</v>
       </c>
@@ -633,7 +698,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21">
         <v>7</v>
       </c>
@@ -647,7 +712,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22">
         <v>10</v>
       </c>
@@ -661,7 +726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23">
         <v>15</v>
       </c>
@@ -675,7 +740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24">
         <v>20</v>
       </c>
@@ -689,7 +754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25">
         <v>23</v>
       </c>
@@ -703,7 +768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26">
         <v>25</v>
       </c>
@@ -717,7 +782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27">
         <v>27</v>
       </c>
@@ -731,7 +796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28">
         <v>30</v>
       </c>
@@ -745,7 +810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -762,7 +827,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31">
         <v>1</v>
       </c>
@@ -776,7 +841,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32">
         <v>3</v>
       </c>
@@ -790,7 +855,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:6">
+    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C33">
         <v>5</v>
       </c>
@@ -804,7 +869,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="34" spans="3:6">
+    <row r="34" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C34">
         <v>7</v>
       </c>
@@ -818,7 +883,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="35" spans="3:6">
+    <row r="35" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C35">
         <v>10</v>
       </c>
@@ -832,7 +897,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="36" spans="3:6">
+    <row r="36" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C36">
         <v>15</v>
       </c>
@@ -846,7 +911,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="37" spans="3:6">
+    <row r="37" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C37">
         <v>20</v>
       </c>
@@ -860,7 +925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="3:6">
+    <row r="38" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C38">
         <v>23</v>
       </c>
@@ -874,7 +939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="3:6">
+    <row r="39" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C39">
         <v>25</v>
       </c>
@@ -888,7 +953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="3:6">
+    <row r="40" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C40">
         <v>27</v>
       </c>
@@ -902,7 +967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="3:6">
+    <row r="41" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C41">
         <v>30</v>
       </c>
@@ -922,21 +987,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A3:E55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N51" sqref="N51"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -953,7 +1018,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>0.5</v>
       </c>
@@ -967,7 +1032,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>1</v>
       </c>
@@ -981,7 +1046,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>3</v>
       </c>
@@ -995,7 +1060,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>5</v>
       </c>
@@ -1009,7 +1074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>7</v>
       </c>
@@ -1023,7 +1088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>10</v>
       </c>
@@ -1037,7 +1102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>15</v>
       </c>
@@ -1051,7 +1116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>20</v>
       </c>
@@ -1065,7 +1130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>23</v>
       </c>
@@ -1079,7 +1144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>25</v>
       </c>
@@ -1093,7 +1158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>27</v>
       </c>
@@ -1107,7 +1172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>30</v>
       </c>
@@ -1121,7 +1186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -1138,7 +1203,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>1</v>
       </c>
@@ -1152,7 +1217,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>3</v>
       </c>
@@ -1166,7 +1231,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>5</v>
       </c>
@@ -1180,7 +1245,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>7</v>
       </c>
@@ -1194,7 +1259,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>10</v>
       </c>
@@ -1208,7 +1273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>15</v>
       </c>
@@ -1222,7 +1287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>20</v>
       </c>
@@ -1236,7 +1301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>23</v>
       </c>
@@ -1250,7 +1315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>25</v>
       </c>
@@ -1264,7 +1329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>27</v>
       </c>
@@ -1278,7 +1343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>30</v>
       </c>
@@ -1292,7 +1357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -1309,7 +1374,7 @@
         <v>0.995</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>1</v>
       </c>
@@ -1323,7 +1388,7 @@
         <v>0.98799999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>3</v>
       </c>
@@ -1337,7 +1402,7 @@
         <v>0.85799999999999998</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>5</v>
       </c>
@@ -1351,7 +1416,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>7</v>
       </c>
@@ -1365,7 +1430,7 @@
         <v>0.373</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>10</v>
       </c>
@@ -1379,7 +1444,7 @@
         <v>0.16800000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>15</v>
       </c>
@@ -1393,7 +1458,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>20</v>
       </c>
@@ -1407,7 +1472,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>23</v>
       </c>
@@ -1421,7 +1486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>25</v>
       </c>
@@ -1435,7 +1500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>27</v>
       </c>
@@ -1449,7 +1514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>30</v>
       </c>
@@ -1463,7 +1528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>9</v>
       </c>
@@ -1480,7 +1545,7 @@
         <v>0.998</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>1</v>
       </c>
@@ -1494,7 +1559,7 @@
         <v>0.98899999999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>3</v>
       </c>
@@ -1508,7 +1573,7 @@
         <v>0.93200000000000005</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>5</v>
       </c>
@@ -1522,7 +1587,7 @@
         <v>0.82499999999999996</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>7</v>
       </c>
@@ -1536,7 +1601,7 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="49" spans="2:5">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B49">
         <v>10</v>
       </c>
@@ -1550,7 +1615,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="50" spans="2:5">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>15</v>
       </c>
@@ -1564,7 +1629,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="51" spans="2:5">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>20</v>
       </c>
@@ -1578,7 +1643,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="52" spans="2:5">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>23</v>
       </c>
@@ -1592,7 +1657,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="53" spans="2:5">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>25</v>
       </c>
@@ -1606,7 +1671,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="54" spans="2:5">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B54">
         <v>27</v>
       </c>
@@ -1620,7 +1685,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="55" spans="2:5">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B55">
         <v>30</v>
       </c>
@@ -1640,13 +1705,108 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.88400000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.32700000000000001</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>